--- a/config/default/forms/app/prep_treatment_verification.xlsx
+++ b/config/default/forms/app/prep_treatment_verification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hivTreatment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24053891-D0C4-4473-AE6D-51E68E1D40B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF066D3-3D5B-46FC-B52F-6D7E4DA4D2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="81585" yWindow="2715" windowWidth="6000" windowHeight="2985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
   <si>
     <t>type</t>
   </si>
@@ -373,9 +373,6 @@
     <t>discontinue</t>
   </si>
   <si>
-    <t>Discontinue</t>
-  </si>
-  <si>
     <t xml:space="preserve">restart </t>
   </si>
   <si>
@@ -448,7 +445,22 @@
     <t>tdf_3tc</t>
   </si>
   <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>${prep_status}=”discontinue”</t>
+  </si>
+  <si>
     <t>${discontinuation_reason}=”other”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${prep_status}=”continue”  or  ${prep_status}=”restart” </t>
   </si>
 </sst>
 </file>
@@ -589,7 +601,127 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1629,10 +1761,10 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2608,7 +2740,7 @@
         <v>80</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2702,7 +2834,7 @@
     </row>
     <row r="32" spans="1:25" ht="13.5">
       <c r="A32" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>83</v>
@@ -2744,7 +2876,7 @@
         <v>67</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2967,9 +3099,11 @@
         <v>95</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -2996,16 +3130,16 @@
         <v>52</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="4"/>
@@ -3039,9 +3173,11 @@
         <v>97</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -3210,330 +3346,386 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y39 A44:Y964">
-    <cfRule type="containsText" dxfId="68" priority="128" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y40 A44:Y949">
-    <cfRule type="expression" dxfId="67" priority="129">
+    <cfRule type="containsText" dxfId="80" priority="140" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Y39 A44:Y949 A40:D40 F40:Y40">
+    <cfRule type="expression" dxfId="79" priority="141">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y40 A44:Y964">
-    <cfRule type="expression" dxfId="66" priority="130">
+  <conditionalFormatting sqref="A1:Y39 A44:Y964 A40:D40 F40:Y40">
+    <cfRule type="expression" dxfId="78" priority="142">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Y39 A44:Y964">
-    <cfRule type="cellIs" dxfId="65" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="143" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I40 I44:I964">
-    <cfRule type="expression" dxfId="64" priority="134">
+    <cfRule type="expression" dxfId="76" priority="146">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C40 C44:C964">
-    <cfRule type="expression" dxfId="63" priority="135">
+    <cfRule type="expression" dxfId="75" priority="147">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B40 B44:B964">
-    <cfRule type="expression" dxfId="62" priority="136">
+    <cfRule type="expression" dxfId="74" priority="148">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A39 A44:A964">
-    <cfRule type="cellIs" dxfId="61" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="149" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="60" priority="139" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="151" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="59" priority="140" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="71" priority="152" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="58" priority="141" operator="notEqual">
+    <cfRule type="cellIs" dxfId="70" priority="153" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="57" priority="142" operator="notEqual">
+    <cfRule type="cellIs" dxfId="69" priority="154" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="56" priority="143" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="155" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="55" priority="144" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="156" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="54" priority="145" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="66" priority="157" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="53" priority="146" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="158" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="52" priority="147" operator="notEqual">
+    <cfRule type="cellIs" dxfId="64" priority="159" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="51" priority="148" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="63" priority="160" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="50" priority="149" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="161" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Y1">
-    <cfRule type="cellIs" dxfId="49" priority="150" operator="notEqual">
+    <cfRule type="cellIs" dxfId="61" priority="162" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H40 H44:H949">
-    <cfRule type="expression" dxfId="48" priority="151">
+    <cfRule type="expression" dxfId="60" priority="163">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y40 A44:Y949">
-    <cfRule type="expression" dxfId="47" priority="152">
+  <conditionalFormatting sqref="A1:Y39 A44:Y949 A40:D40 F40:Y40">
+    <cfRule type="expression" dxfId="59" priority="164">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y40 A44:Y964">
-    <cfRule type="expression" dxfId="46" priority="153">
+  <conditionalFormatting sqref="A1:Y39 A44:Y964 A40:D40 F40:Y40">
+    <cfRule type="expression" dxfId="58" priority="165">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y40">
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:Y40">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+  <conditionalFormatting sqref="A40:D40 F40:Y40">
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:D40 F40:Y40">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="containsText" dxfId="42" priority="31" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="53" priority="44">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="40" priority="33">
+    <cfRule type="expression" dxfId="52" priority="45">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="46" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="38" priority="35">
+    <cfRule type="expression" dxfId="50" priority="47">
       <formula>AND($I43 = "", $A43 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="49" priority="48">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="46" priority="51">
       <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="33" priority="40">
+    <cfRule type="expression" dxfId="45" priority="52">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="32" priority="41">
+    <cfRule type="expression" dxfId="44" priority="53">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" dxfId="30" priority="20">
+  <conditionalFormatting sqref="A42:D42 F42:Y42">
+    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:D42 F42:Y42">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" dxfId="29" priority="21">
+  <conditionalFormatting sqref="A42:D42 F42:Y42">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+  <conditionalFormatting sqref="A42:D42 F42:Y42">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>AND($I42 = "", $A42 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="37" priority="37">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>AND(NOT($G42 = ""), $H42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" dxfId="22" priority="28">
+  <conditionalFormatting sqref="A42:D42 F42:Y42">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:Y42">
-    <cfRule type="expression" dxfId="21" priority="29">
+  <conditionalFormatting sqref="A42:D42 F42:Y42">
+    <cfRule type="expression" dxfId="33" priority="41">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B40 B42:B957">
-    <cfRule type="expression" dxfId="20" priority="413">
+    <cfRule type="expression" dxfId="32" priority="425">
       <formula>COUNTIF($B$2:$B$957,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="19" priority="417">
+    <cfRule type="expression" dxfId="31" priority="429">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$958, "begin group") = COUNTIF($A$1:$A$958, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="18" priority="418">
+    <cfRule type="expression" dxfId="30" priority="430">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$949, "begin group") = COUNTIF($A$1:$A$958, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>AND($I41 = "", $A41 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>COUNTIF($B$2:$B$957,B41)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E40">
     <cfRule type="expression" dxfId="4" priority="2">
-      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+  <conditionalFormatting sqref="E40">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3549,11 +3741,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1048551"/>
+  <dimension ref="A1:F1048552"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3600,15 +3792,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>99</v>
+    <row r="4" spans="1:6" ht="13.5">
+      <c r="A4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3616,10 +3808,10 @@
         <v>98</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3627,10 +3819,10 @@
         <v>98</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3638,10 +3830,10 @@
         <v>98</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3649,21 +3841,21 @@
         <v>98</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3671,98 +3863,98 @@
         <v>91</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="C14" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3773,7 +3965,7 @@
         <v>135</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3784,10 +3976,21 @@
         <v>134</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="1048551" ht="15.75" customHeight="1"/>
+      <c r="C21" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1048552" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3839,7 +4042,7 @@
       </c>
       <c r="C2" s="12">
         <f ca="1">NOW()</f>
-        <v>43999.472335300925</v>
+        <v>44000.968142592596</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>63</v>

--- a/config/default/forms/app/prep_treatment_verification.xlsx
+++ b/config/default/forms/app/prep_treatment_verification.xlsx
@@ -1,32 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\hivTreatment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF066D3-3D5B-46FC-B52F-6D7E4DA4D2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -37,340 +24,337 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message::en</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>media::image</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>inputs</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>db:clinic</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>What is the patient's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>ID of head of household</t>
-  </si>
-  <si>
-    <t>Name of head of household</t>
-  </si>
-  <si>
-    <t>end group</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>CHW name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>CHW phone</t>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>NO_LABEL</t>
-  </si>
-  <si>
-    <t>../inputs/source</t>
-  </si>
-  <si>
-    <t>../inputs/source_id</t>
-  </si>
-  <si>
-    <t>place_id</t>
-  </si>
-  <si>
-    <t>../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t>place_name</t>
-  </si>
-  <si>
-    <t>../inputs/contact/name</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>../inputs/contact/contact/name</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>pages</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Is a PEPFAR site?</t>
-  </si>
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>Source of Information:</t>
-  </si>
-  <si>
-    <t>Comments:</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>select_one is_pepfar_site</t>
-  </si>
-  <si>
-    <t>pepfar_sites</t>
-  </si>
-  <si>
-    <t>is_pepfar_site</t>
-  </si>
-  <si>
-    <t>source_of_information</t>
-  </si>
-  <si>
-    <t>PrEP Treatment Verification</t>
-  </si>
-  <si>
-    <t>prep_treatment_verification</t>
-  </si>
-  <si>
-    <t>prep_history</t>
-  </si>
-  <si>
-    <t>PrEP History</t>
-  </si>
-  <si>
-    <t>enrollmenet_date</t>
-  </si>
-  <si>
-    <t>Enrollment Date</t>
-  </si>
-  <si>
-    <t>Name of health facility:</t>
-  </si>
-  <si>
-    <t>date_initiated_on_prep</t>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint_message::en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media::image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./source = 'user'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db:clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the patient's name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db-object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db:person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID of head of household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of head of household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/source_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../inputs/contact/contact/name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prep_history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrEP History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enrollmenet_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrollment Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facility_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of health facility:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one is_pepfar_site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pepfar_sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is a PEPFAR site?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_initiated_on_prep</t>
   </si>
   <si>
     <t xml:space="preserve">Date initiated on PrEP? </t>
   </si>
   <si>
-    <t>prep_regimen</t>
-  </si>
-  <si>
-    <t>PrEP Regimen</t>
-  </si>
-  <si>
-    <t>select_one source_of_info</t>
-  </si>
-  <si>
-    <t>prep_appointments</t>
-  </si>
-  <si>
-    <t>PrEP Appointments</t>
-  </si>
-  <si>
-    <t>verification_date</t>
-  </si>
-  <si>
-    <t>Verification Date:</t>
-  </si>
-  <si>
-    <t>select_one prep_status</t>
-  </si>
-  <si>
-    <t>prep_status</t>
-  </si>
-  <si>
-    <t>PrEP  Status</t>
-  </si>
-  <si>
-    <t>select_one prep_discontinuation_reason</t>
-  </si>
-  <si>
-    <t>discontinuation_reason</t>
-  </si>
-  <si>
-    <t>PrEP  Discontinuation Reason</t>
-  </si>
-  <si>
-    <t>next_appointment</t>
-  </si>
-  <si>
-    <t>Next Appointment Date:</t>
-  </si>
-  <si>
-    <t>source_of_info</t>
-  </si>
-  <si>
-    <t>Verbal Report</t>
-  </si>
-  <si>
-    <t>Appointment Card</t>
-  </si>
-  <si>
-    <t>Phone Call Written record</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>EID Dashboard</t>
-  </si>
-  <si>
-    <t>eid_dashboard</t>
-  </si>
-  <si>
-    <t>sms</t>
-  </si>
-  <si>
-    <t>phone_call_written_record</t>
-  </si>
-  <si>
-    <t>appointment_card</t>
-  </si>
-  <si>
-    <t>verbal_report</t>
-  </si>
-  <si>
-    <t>continue</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>discontinue</t>
+    <t xml:space="preserve">select_one prep_regimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prep_regimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrEP Regimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one source_of_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_of_information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of Information:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prep_appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrEP Appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verification_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification Date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one prep_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prep_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrEP  Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one prep_discontinuation_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discontinuation_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrEP  Discontinuation Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${prep_status}=”discontinue”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Specify:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${discontinuation_reason}=”other”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next_appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Appointment Date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${prep_status}=”continue”  or  ${prep_status}=”restart” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_pepfar_site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_of_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbal_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbal Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appointment_card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appointment Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone_call_written_record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Call Written record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eid_dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EID Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discontinue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discontinued</t>
   </si>
   <si>
     <t xml:space="preserve">restart </t>
@@ -379,154 +363,171 @@
     <t xml:space="preserve">Restart </t>
   </si>
   <si>
-    <t>prep_discontinuation_reason</t>
-  </si>
-  <si>
-    <t>Tested HIV Positive</t>
+    <t xml:space="preserve">prep_discontinuation_reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tested_hiv_positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested HIV Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_request</t>
   </si>
   <si>
     <t xml:space="preserve">Client Request </t>
   </si>
   <si>
-    <t>client_request</t>
-  </si>
-  <si>
-    <t>tested_hiv_positive</t>
-  </si>
-  <si>
-    <t>Not Adherent to PrEP</t>
-  </si>
-  <si>
-    <t>not_adhered</t>
-  </si>
-  <si>
-    <t>Viral Suppression of HIV + Partner</t>
-  </si>
-  <si>
-    <t>viral_supression</t>
+    <t xml:space="preserve">not_adhered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Adherent to PrEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viral_supression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viral Suppression of HIV + Partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">many_hiv_test</t>
   </si>
   <si>
     <t xml:space="preserve">Too many HIV Tests </t>
   </si>
   <si>
-    <t>many_hiv_test</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t xml:space="preserve">other</t>
   </si>
   <si>
     <t xml:space="preserve">Other </t>
   </si>
   <si>
-    <t>other_reason</t>
-  </si>
-  <si>
-    <t>Other Specify:</t>
-  </si>
-  <si>
-    <t>select_one prep_regimen</t>
-  </si>
-  <si>
-    <t>TDF+3TC</t>
-  </si>
-  <si>
-    <t>TDF + FTC</t>
-  </si>
-  <si>
-    <t>TDF</t>
-  </si>
-  <si>
-    <t>tdf</t>
-  </si>
-  <si>
-    <t>tdf_ftc</t>
-  </si>
-  <si>
-    <t>tdf_3tc</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>${prep_status}=”discontinue”</t>
-  </si>
-  <si>
-    <t>${discontinuation_reason}=”other”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${prep_status}=”continue”  or  ${prep_status}=”restart” </t>
+    <t xml:space="preserve">tdf_3tc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDF+3TC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tdf_ftc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDF + FTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrEP Treatment Verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prep_treatment_verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA9B7C6"/>
       <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF4C4C4C"/>
       <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -544,7 +545,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -552,78 +553,494 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="81">
     <dxf>
       <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -634,26 +1051,260 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFB7B7B7"/>
       </font>
       <fill>
@@ -664,724 +1315,115 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF76A5AF"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFC27BA0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1440,352 +1482,45 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF4C4C4C"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.1328125" customWidth="1"/>
-    <col min="2" max="2" width="33.73046875" customWidth="1"/>
-    <col min="3" max="3" width="48.53125" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="52.3984375" customWidth="1"/>
-    <col min="6" max="6" width="17.3984375" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" customWidth="1"/>
-    <col min="8" max="8" width="32.73046875" customWidth="1"/>
-    <col min="9" max="9" width="73.86328125" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
-    <col min="11" max="11" width="25.1328125" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" customWidth="1"/>
-    <col min="13" max="25" width="29.86328125" customWidth="1"/>
-    <col min="26" max="1025" width="14.3984375" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8367346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="76.4948979591837"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="13" style="0" width="30.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="14.8469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.9">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1573,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="13.5">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1875,7 +1610,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" ht="13.5">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1910,7 +1645,7 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1943,7 +1678,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="13.5">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1976,7 +1711,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="13.5">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -2011,7 +1746,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="1:25" ht="13.5">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2044,7 +1779,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="13.5">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2077,7 +1812,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="13.5">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
@@ -2112,7 +1847,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2145,7 +1880,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="13.5">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -2174,7 +1909,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="13.5">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +1942,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" ht="13.5">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -2240,7 +1975,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="13.5">
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2273,7 +2008,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="13.5">
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -2306,7 +2041,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="13.5">
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -2339,7 +2074,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" ht="13.5">
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -2368,7 +2103,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25" ht="13.5">
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -2397,7 +2132,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25" ht="13.5">
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -2426,7 +2161,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" ht="13.5">
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -2455,7 +2190,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" ht="13.5">
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -2484,7 +2219,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:25" ht="13.5">
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -2519,7 +2254,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" ht="13.5">
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -2554,7 +2289,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" ht="13.5">
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
@@ -2589,7 +2324,7 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:25" ht="13.5">
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -2624,7 +2359,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:25" ht="13.5">
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -2659,15 +2394,15 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:25" ht="13.5">
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2694,18 +2429,18 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:25" ht="13.5">
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -2729,18 +2464,18 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:25" ht="13.5">
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -2764,18 +2499,18 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:25" ht="13.5">
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
@@ -2799,15 +2534,15 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25" ht="13.5">
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2832,15 +2567,15 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" ht="13.5">
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="8"/>
@@ -2865,18 +2600,18 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25" ht="13.5">
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2900,7 +2635,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25" ht="13.5">
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2927,7 +2662,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25" ht="13.5">
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
@@ -2956,7 +2691,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" ht="13.5">
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2983,15 +2718,15 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25" ht="13.5">
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -3018,18 +2753,18 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" ht="13.5">
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -3053,18 +2788,18 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" ht="13.5">
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -3088,21 +2823,21 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:25" ht="27">
+    <row r="40" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -3125,21 +2860,21 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:25" ht="13.5">
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="4"/>
@@ -3162,21 +2897,21 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="1:25" ht="13.5">
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -3199,18 +2934,18 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:25" ht="13.5">
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>68</v>
+        <v>88</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -3234,7 +2969,7 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:25" ht="13.5">
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -3261,7 +2996,7 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:25" ht="13.5">
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>34</v>
       </c>
@@ -3290,7 +3025,7 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
     </row>
-    <row r="46" spans="1:25" ht="13.5">
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -3317,7 +3052,7 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
     </row>
-    <row r="47" spans="1:25" ht="13.5">
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -3345,420 +3080,429 @@
       <c r="Y47" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y39 A44:Y964">
-    <cfRule type="containsText" dxfId="80" priority="140" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y39 A44:Y949 A40:D40 F40:Y40">
-    <cfRule type="expression" dxfId="79" priority="141">
+  <conditionalFormatting sqref="A1:Y39,A44:Y964">
+    <cfRule type="containsText" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Y39,A44:Y949,A40:D40,F40:Y40">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y39 A44:Y964 A40:D40 F40:Y40">
-    <cfRule type="expression" dxfId="78" priority="142">
+  <conditionalFormatting sqref="A1:Y39,A44:Y964,A40:D40,F40:Y40">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y39 A44:Y964">
-    <cfRule type="cellIs" dxfId="77" priority="143" operator="equal">
+  <conditionalFormatting sqref="A1:Y39,A44:Y964">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I40 I44:I964">
-    <cfRule type="expression" dxfId="76" priority="146">
+  <conditionalFormatting sqref="I1:I40,I44:I964">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C40 C44:C964">
-    <cfRule type="expression" dxfId="75" priority="147">
+  <conditionalFormatting sqref="C1:C40,C44:C964">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B40 B44:B964">
-    <cfRule type="expression" dxfId="74" priority="148">
+  <conditionalFormatting sqref="B1:B40,B44:B964">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A39 A44:A964">
-    <cfRule type="cellIs" dxfId="73" priority="149" operator="equal">
+  <conditionalFormatting sqref="A1:A39,A44:A964">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="72" priority="151" operator="notEqual">
+    <cfRule type="cellIs" priority="10" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="71" priority="152" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="label" dxfId="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="70" priority="153" operator="notEqual">
+    <cfRule type="cellIs" priority="12" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="69" priority="154" operator="notEqual">
+    <cfRule type="cellIs" priority="13" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="68" priority="155" operator="notEqual">
+    <cfRule type="cellIs" priority="14" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="67" priority="156" operator="notEqual">
+    <cfRule type="cellIs" priority="15" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="66" priority="157" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="constraint_message" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="65" priority="158" operator="notEqual">
+    <cfRule type="cellIs" priority="17" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="64" priority="159" operator="notEqual">
+    <cfRule type="cellIs" priority="18" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="63" priority="160" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="hint" dxfId="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="62" priority="161" operator="notEqual">
+    <cfRule type="cellIs" priority="20" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:Y1">
-    <cfRule type="cellIs" dxfId="61" priority="162" operator="notEqual">
+    <cfRule type="cellIs" priority="21" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H40 H44:H949">
-    <cfRule type="expression" dxfId="60" priority="163">
+  <conditionalFormatting sqref="H1:H40,H44:H949">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y39 A44:Y949 A40:D40 F40:Y40">
-    <cfRule type="expression" dxfId="59" priority="164">
+  <conditionalFormatting sqref="A1:Y39,A44:Y949,A40:D40,F40:Y40">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Y39 A44:Y964 A40:D40 F40:Y40">
-    <cfRule type="expression" dxfId="58" priority="165">
+  <conditionalFormatting sqref="A1:Y39,A44:Y964,A40:D40,F40:Y40">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:D40 F40:Y40">
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:D40 F40:Y40">
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+  <conditionalFormatting sqref="A40:D40,F40:Y40">
+    <cfRule type="containsText" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:D40,F40:Y40">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="cellIs" dxfId="55" priority="62" operator="equal">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="53" priority="44">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="52" priority="45">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="cellIs" dxfId="51" priority="46" operator="equal">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="50" priority="47">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>AND($I43 = "", $A43 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="49" priority="48">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $C43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="46" priority="51">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>AND(NOT($G43 = ""), $H43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="45" priority="52">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:Y43">
-    <cfRule type="expression" dxfId="44" priority="53">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:D42 F42:Y42">
-    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:D42 F42:Y42">
-    <cfRule type="expression" dxfId="42" priority="32">
+  <conditionalFormatting sqref="A42:D42,F42:Y42">
+    <cfRule type="containsText" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:D42,F42:Y42">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:D42 F42:Y42">
-    <cfRule type="expression" dxfId="41" priority="33">
+  <conditionalFormatting sqref="A42:D42,F42:Y42">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:D42 F42:Y42">
-    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+  <conditionalFormatting sqref="A42:D42,F42:Y42">
+    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
       <formula>AND($I42 = "", $A42 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $C42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
       <formula>AND(AND(NOT($A42 = "end group"), NOT($A42 = "end repeat"), NOT($A42 = "")), $B42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="35" priority="39">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
       <formula>AND(NOT($G42 = ""), $H42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:D42 F42:Y42">
-    <cfRule type="expression" dxfId="34" priority="40">
+  <conditionalFormatting sqref="A42:D42,F42:Y42">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:D42 F42:Y42">
-    <cfRule type="expression" dxfId="33" priority="41">
+  <conditionalFormatting sqref="A42:D42,F42:Y42">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B40 B42:B957">
-    <cfRule type="expression" dxfId="32" priority="425">
+  <conditionalFormatting sqref="B2:B40,B42:B957">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
       <formula>COUNTIF($B$2:$B$957,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="31" priority="429">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$958, "begin group") = COUNTIF($A$1:$A$958, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="30" priority="430">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$949, "begin group") = COUNTIF($A$1:$A$958, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="expression" dxfId="28" priority="20">
+  <conditionalFormatting sqref="A41:D41,F41:Y41">
+    <cfRule type="containsText" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:D41,F41:Y41">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="expression" dxfId="27" priority="21">
+  <conditionalFormatting sqref="A41:D41,F41:Y41">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+  <conditionalFormatting sqref="A41:D41,F41:Y41">
+    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
       <formula>AND($I41 = "", $A41 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
       <formula>AND(NOT($G41 = ""), $H41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="expression" dxfId="20" priority="28">
+  <conditionalFormatting sqref="A41:D41,F41:Y41">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:D41 F41:Y41">
-    <cfRule type="expression" dxfId="19" priority="29">
+  <conditionalFormatting sqref="A41:D41,F41:Y41">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="18" priority="30">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
       <formula>COUNTIF($B$2:$B$957,B41)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
       <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
       <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
       <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
       <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D47" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2:D47" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1048552"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F65512"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.53125" customWidth="1"/>
-    <col min="2" max="2" width="31.1328125" customWidth="1"/>
-    <col min="3" max="3" width="39.1328125" customWidth="1"/>
-    <col min="4" max="1025" width="14.3984375" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.219387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.8469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.9">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -3770,291 +3514,305 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="14" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="14" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="14" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="14" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="1048552" ht="15.75" customHeight="1"/>
+    <row r="1048552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="1025" width="14.3984375" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="14.8469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75">
+    <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="12">
-        <f ca="1">NOW()</f>
-        <v>44000.968142592596</v>
+        <v>139</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <f aca="true">NOW()</f>
+        <v>44033.9662651041</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row r="1048576" ht="15.75" customHeight="1"/>
+    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>